--- a/Översikt ÄLVSBYN.xlsx
+++ b/Översikt ÄLVSBYN.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44949</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>43875</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44813</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44874</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43739</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44671</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44969</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43348</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43373</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43394</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43397</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43403</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43406</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>43416</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43427</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43427</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43437</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43467</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43467</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43483</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43495</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43496</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43501</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43545</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43598</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43614</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43672</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43677</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43677</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43691</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43705</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43710</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43712</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43713</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>43713</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43718</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43721</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43739</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43770</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43773</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43780</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>43789</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>43803</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>43809</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43818</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43818</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43818</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43832</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43839</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43839</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43868</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43908</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43922</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43930</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44012</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>44041</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>44057</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44085</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44085</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44085</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44085</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>44085</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>44085</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44085</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44092</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>44102</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>44103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>44105</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>44125</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>44125</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>44131</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         <v>44147</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>44174</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44229</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>44229</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>44246</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44271</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44280</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>44300</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44308</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>44308</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44342</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>44342</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>44378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>44385</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>44431</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44446</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44455</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         <v>44455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>44460</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>44460</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8673,7 +8673,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>44462</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44462</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>44463</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>44463</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>44463</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>44466</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>44473</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44476</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44484</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44488</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44491</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>44491</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>44494</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44497</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44517</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>44522</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>44522</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44531</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44543</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44552</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44599</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44602</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>44602</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>44616</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>44617</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44617</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>44617</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>44617</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>44617</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>44645</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>44677</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>44685</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44690</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>44701</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>44705</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44711</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44721</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44721</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44727</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>44728</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44732</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>44732</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>44739</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44739</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44739</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44739</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44739</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44748</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44749</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44781</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44788</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44790</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44795</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44795</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44795</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44818</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44820</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44825</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44834</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44837</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44847</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44851</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44851</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>44853</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>44853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>44855</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>44861</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44865</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44872</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44873</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44875</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44876</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44896</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44897</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44910</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44918</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44942</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44944</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44949</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44952</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44952</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44958</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>44959</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>44960</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44973</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44973</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44985</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>44988</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>44992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>44994</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>45016</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>45016</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>45016</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>45028</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>45033</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>45035</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>45044</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>45071</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>45078</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>45078</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>45079</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>45084</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45086</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45093</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45098</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45099</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>45103</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45103</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45107</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>45107</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>45107</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45159</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt ÄLVSBYN.xlsx
+++ b/Översikt ÄLVSBYN.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44949</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>43875</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44813</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44874</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43739</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44671</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44969</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43348</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43373</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43394</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43397</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43403</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43406</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>43416</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43427</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43427</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43437</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43467</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43467</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43483</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43495</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43496</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43501</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43545</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43598</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43614</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43672</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43677</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43677</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43691</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43705</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43710</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43712</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43713</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>43713</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43718</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43721</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43739</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43770</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43773</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43780</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>43789</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>43803</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>43809</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43818</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43818</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43818</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43832</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43839</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43839</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43868</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43908</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43922</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43930</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44012</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>44041</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>44057</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44085</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44085</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44085</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44085</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>44085</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>44085</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44085</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44092</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>44102</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>44103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>44105</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>44125</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>44125</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>44131</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         <v>44147</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>44174</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44229</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>44229</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>44246</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44271</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44280</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>44300</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44308</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>44308</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44342</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>44342</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>44378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>44385</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>44431</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44446</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44455</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         <v>44455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>44460</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>44460</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8673,7 +8673,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>44462</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44462</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>44463</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>44463</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>44463</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>44466</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>44473</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44476</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44484</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44488</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44491</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>44491</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>44494</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44497</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44517</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>44522</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>44522</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44531</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44543</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44552</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44599</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44602</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>44602</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>44616</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>44617</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44617</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>44617</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>44617</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>44617</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>44645</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>44677</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>44685</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44690</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>44701</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>44705</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44711</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44721</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44721</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44727</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>44728</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44732</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>44732</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>44739</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44739</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44739</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44739</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44739</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44748</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44749</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44781</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44788</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44790</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44795</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44795</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44795</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44818</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44820</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44825</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44834</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44837</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44847</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44851</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44851</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>44853</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>44853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>44855</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>44861</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44865</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44872</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44873</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44875</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44876</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44896</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44897</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44910</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44918</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44942</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44944</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44949</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44952</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44952</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44958</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>44959</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>44960</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44973</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44973</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44985</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>44988</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>44992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>44994</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>45016</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>45016</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>45016</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>45028</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>45033</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>45035</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>45044</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>45071</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>45078</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>45078</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>45079</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>45084</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45086</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45093</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45098</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45099</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>45103</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45103</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45107</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>45107</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>45107</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45159</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt ÄLVSBYN.xlsx
+++ b/Översikt ÄLVSBYN.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44949</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>43875</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44813</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44874</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43739</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44671</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44969</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43348</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43373</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43394</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43397</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43403</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43406</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>43416</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43427</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43427</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43437</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43467</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43467</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43483</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43495</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43496</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43501</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43545</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43598</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43614</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43672</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43677</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43677</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43691</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43705</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43710</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43712</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43713</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>43713</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43718</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43721</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43739</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43770</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43773</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43780</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>43789</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>43803</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>43809</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43818</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43818</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43818</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43832</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43839</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43839</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43868</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43908</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43922</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43930</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44012</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>44041</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>44057</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44085</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44085</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44085</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44085</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>44085</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>44085</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44085</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44092</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>44102</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>44103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>44105</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>44125</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>44125</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>44131</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         <v>44147</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>44174</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44229</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>44229</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>44246</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44271</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44280</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>44300</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44308</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>44308</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44342</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>44342</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>44378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>44385</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>44431</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44446</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44455</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         <v>44455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>44460</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>44460</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8673,7 +8673,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>44462</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44462</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>44463</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>44463</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>44463</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>44466</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>44473</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44476</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44484</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44488</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44491</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>44491</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>44494</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44497</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44517</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>44522</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>44522</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44531</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44543</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44552</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44599</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44602</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>44602</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>44616</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>44617</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44617</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>44617</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>44617</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>44617</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>44645</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>44677</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>44685</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44690</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>44701</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>44705</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44711</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44721</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44721</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44727</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>44728</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44732</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>44732</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>44739</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44739</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44739</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44739</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44739</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44748</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44749</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44781</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44788</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44790</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44795</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44795</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44795</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44818</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44820</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44825</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44834</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44837</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44847</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44851</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44851</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>44853</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>44853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>44855</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>44861</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44865</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44872</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44873</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44875</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44876</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44896</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44897</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44910</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44918</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44942</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44944</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44949</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44952</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44952</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44958</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>44959</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>44960</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44973</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44973</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44985</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>44988</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>44992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>44994</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>45016</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>45016</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>45016</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>45028</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>45033</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>45035</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>45044</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>45071</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>45078</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>45078</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>45079</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>45084</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45086</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45093</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45098</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45099</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>45103</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45103</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45107</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>45107</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>45107</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45159</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt ÄLVSBYN.xlsx
+++ b/Översikt ÄLVSBYN.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44949</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>43875</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44813</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44874</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43739</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44671</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44969</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43348</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43373</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43394</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43397</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43403</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43406</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>43416</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43427</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43427</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43437</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43467</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43467</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43483</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43495</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43496</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43501</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43545</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43598</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43614</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43672</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43677</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43677</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43691</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43705</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43710</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43712</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43713</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>43713</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43718</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43721</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43739</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43770</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43773</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43780</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>43789</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>43803</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>43809</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43818</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43818</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43818</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43832</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43839</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43839</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43868</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43908</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43922</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43930</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44012</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>44041</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>44057</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44085</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44085</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44085</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44085</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>44085</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>44085</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44085</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44092</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>44102</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>44103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>44105</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>44125</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>44125</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>44131</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         <v>44147</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>44174</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44229</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>44229</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>44246</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44271</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44280</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>44300</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44308</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>44308</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44342</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>44342</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>44378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>44385</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>44431</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44446</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44455</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         <v>44455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>44460</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>44460</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8673,7 +8673,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>44462</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44462</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>44463</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>44463</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>44463</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>44466</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>44473</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44476</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44484</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44488</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44491</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>44491</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>44494</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44497</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44517</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>44522</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>44522</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44531</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44543</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44552</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44599</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44602</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>44602</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>44616</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>44617</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44617</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>44617</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>44617</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>44617</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>44645</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>44677</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>44685</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44690</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>44701</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>44705</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44711</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44721</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44721</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44727</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>44728</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44732</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>44732</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>44739</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44739</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44739</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44739</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44739</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44748</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44749</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44781</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44788</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44790</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44795</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44795</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44795</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44818</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44820</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44825</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44834</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44837</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44847</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44851</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44851</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>44853</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>44853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>44855</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>44861</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44865</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44872</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44873</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44875</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44876</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44896</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44897</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44910</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44918</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44942</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44944</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44949</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44952</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44952</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44958</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>44959</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>44960</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44973</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44973</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44985</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>44988</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>44992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>44994</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>45016</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>45016</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>45016</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>45028</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>45033</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>45035</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>45044</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>45071</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>45078</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>45078</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>45079</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>45084</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45086</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45093</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45098</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45099</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>45103</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45103</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45107</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>45107</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>45107</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45159</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt ÄLVSBYN.xlsx
+++ b/Översikt ÄLVSBYN.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44949</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>43875</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44813</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44874</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43739</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44671</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44969</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43348</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43373</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43394</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43397</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43403</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43406</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>43416</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43427</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43427</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43437</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43467</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43467</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43483</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43495</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43496</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43501</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43545</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43598</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43614</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43672</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43677</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43677</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43691</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43705</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43710</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43712</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43713</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>43713</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43718</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43721</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43739</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43770</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43773</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43780</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>43789</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>43803</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>43809</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43818</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43818</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43818</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43832</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43839</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43839</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43868</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43908</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43922</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43930</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44012</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>44041</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>44057</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44085</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44085</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44085</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44085</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>44085</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>44085</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44085</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44092</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>44102</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>44103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>44105</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>44125</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>44125</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>44131</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         <v>44147</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>44174</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44229</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>44229</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>44246</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44271</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44280</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>44300</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44308</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>44308</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44342</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>44342</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>44378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>44385</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>44431</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44446</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44455</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         <v>44455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>44460</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>44460</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8673,7 +8673,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>44462</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44462</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>44463</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>44463</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>44463</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>44466</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>44473</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44476</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44484</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44488</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44491</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>44491</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>44494</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44497</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44517</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>44522</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>44522</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44531</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44543</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44552</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44599</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44602</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>44602</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>44616</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>44617</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44617</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>44617</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>44617</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>44617</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>44645</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>44677</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>44685</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44690</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>44701</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>44705</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44711</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44721</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44721</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44727</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>44728</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44732</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>44732</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>44739</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44739</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44739</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44739</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44739</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44748</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44749</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44781</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44788</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44790</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44795</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44795</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44795</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44818</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44820</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44825</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44834</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44837</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44847</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44851</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44851</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>44853</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>44853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>44855</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>44861</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44865</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44872</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44873</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44875</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44876</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44896</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44897</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44910</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44918</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44942</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44944</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44949</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44952</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44952</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44958</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>44959</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>44960</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44973</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44973</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44985</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>44988</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>44992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>44994</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>45016</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>45016</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>45016</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>45028</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>45033</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>45035</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>45044</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>45071</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>45078</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>45078</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>45079</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>45084</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45086</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45093</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45098</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45099</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>45103</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45103</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45107</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>45107</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>45107</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45159</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt ÄLVSBYN.xlsx
+++ b/Översikt ÄLVSBYN.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44949</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>43875</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44813</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44874</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43739</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44671</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44969</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43348</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43373</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43394</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43397</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43403</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43406</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>43416</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43427</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43427</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43437</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43467</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43467</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43483</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43495</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43496</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43501</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43545</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43598</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43614</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43672</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43677</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43677</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43691</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43705</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43710</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43712</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43713</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>43713</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43718</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43721</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43739</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43770</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43773</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43780</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>43789</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>43803</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>43809</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43818</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43818</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43818</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43832</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43839</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43839</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43868</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43908</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43922</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43930</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44012</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>44041</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>44057</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44085</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44085</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44085</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44085</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>44085</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>44085</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44085</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44092</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>44102</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>44103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>44105</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>44125</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>44125</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>44131</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         <v>44147</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>44174</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44229</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>44229</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>44246</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44271</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44280</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>44300</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44308</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>44308</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44342</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>44342</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>44378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>44385</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>44431</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44446</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44455</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         <v>44455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>44460</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>44460</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8673,7 +8673,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>44462</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44462</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>44463</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>44463</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>44463</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>44466</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>44473</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44476</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44484</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44488</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44491</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>44491</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>44494</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44497</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44517</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>44522</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>44522</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44531</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44543</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44552</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44599</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44602</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>44602</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>44616</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>44617</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44617</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>44617</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>44617</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>44617</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>44645</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>44677</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>44685</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44690</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>44701</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>44705</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44711</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44721</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44721</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44727</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>44728</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44732</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>44732</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>44739</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44739</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44739</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44739</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44739</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44748</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44749</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44781</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44788</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44790</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44795</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44795</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44795</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44818</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44820</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44825</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44834</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44837</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44847</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44851</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44851</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>44853</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>44853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>44855</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>44861</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44865</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44872</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44873</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44875</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44876</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44896</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44897</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44910</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44918</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44942</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44944</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44949</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44952</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44952</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44958</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>44959</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>44960</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44973</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44973</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44985</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>44988</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>44992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>44994</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>45016</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>45016</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>45016</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>45028</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>45033</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>45035</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>45044</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>45071</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>45078</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>45078</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>45079</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>45084</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45086</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45093</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45098</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45099</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>45103</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45103</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45107</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>45107</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>45107</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45159</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt ÄLVSBYN.xlsx
+++ b/Översikt ÄLVSBYN.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44949</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>43875</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44813</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44874</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43739</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44671</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44969</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43348</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43373</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43394</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43397</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43403</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43406</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>43416</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43427</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43427</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43437</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43467</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43467</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43483</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43495</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43496</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43501</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43545</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43598</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43614</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43672</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43677</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43677</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43691</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43705</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43710</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43712</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43713</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>43713</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43718</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43721</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43739</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43770</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43773</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43780</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>43789</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>43803</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>43809</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43818</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43818</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43818</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43832</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43839</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43839</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43868</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43908</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43922</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43930</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44012</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>44041</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>44057</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44085</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44085</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44085</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44085</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>44085</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>44085</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44085</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44092</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>44102</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>44103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>44105</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>44125</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>44125</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>44131</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         <v>44147</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>44174</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44229</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>44229</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>44246</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44271</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44280</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>44300</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44308</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>44308</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44342</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>44342</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>44378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>44385</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>44431</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44446</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44455</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         <v>44455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>44460</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>44460</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8673,7 +8673,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>44462</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44462</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>44463</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>44463</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>44463</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>44466</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>44473</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44476</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44484</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44488</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44491</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>44491</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>44494</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44497</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44517</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>44522</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>44522</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44531</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44543</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44552</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44599</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44602</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>44602</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>44616</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>44617</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44617</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>44617</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>44617</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>44617</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>44645</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>44677</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>44685</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44690</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>44701</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>44705</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44711</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44721</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44721</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44727</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>44728</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44732</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>44732</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>44739</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44739</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44739</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44739</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44739</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44748</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44749</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44781</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44788</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44790</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44795</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44795</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44795</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44818</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44820</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44825</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44834</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44837</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44847</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44851</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44851</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>44853</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>44853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>44855</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>44861</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44865</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44872</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44873</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44875</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44876</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44896</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44897</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44910</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44918</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44942</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44944</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44949</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44952</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44952</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44958</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>44959</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>44960</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44973</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44973</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44985</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>44988</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>44992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>44994</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>45016</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>45016</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>45016</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>45028</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>45033</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>45035</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>45044</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>45071</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>45078</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>45078</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>45079</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>45084</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45086</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45093</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45098</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45099</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>45103</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45103</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45107</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>45107</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>45107</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45159</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt ÄLVSBYN.xlsx
+++ b/Översikt ÄLVSBYN.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44949</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>43875</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44813</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44874</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43739</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44671</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44969</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43348</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43373</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43394</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43397</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43403</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43406</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>43416</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43427</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43427</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43437</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43467</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43467</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43483</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43495</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43496</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43501</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43545</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43598</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43614</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43672</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43677</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43677</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43691</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43705</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43710</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43712</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43713</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>43713</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43718</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43721</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43739</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43770</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43773</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43780</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>43789</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>43803</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>43809</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43818</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43818</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43818</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43832</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43839</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43839</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43868</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43908</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43922</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43930</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44012</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>44041</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>44057</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44085</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44085</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44085</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44085</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>44085</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>44085</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44085</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44092</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>44102</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>44103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>44105</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>44125</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>44125</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>44131</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         <v>44147</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>44174</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44229</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>44229</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>44246</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44271</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44280</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>44300</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44308</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>44308</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44342</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>44342</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>44378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>44385</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>44431</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44446</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44455</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         <v>44455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>44460</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>44460</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8673,7 +8673,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>44462</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44462</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>44463</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>44463</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>44463</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>44466</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>44473</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44476</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44484</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44488</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44491</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>44491</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>44494</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44497</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44517</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>44522</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>44522</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44531</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44543</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44552</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44599</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44602</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>44602</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>44616</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>44617</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44617</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>44617</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>44617</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>44617</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>44645</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>44677</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>44685</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44690</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>44701</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>44705</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44711</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44721</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44721</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44727</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>44728</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44732</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>44732</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>44739</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44739</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44739</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44739</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44739</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44748</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44749</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44781</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44788</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44790</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44795</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44795</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44795</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44818</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44820</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44825</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44834</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44837</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44847</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44851</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44851</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>44853</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>44853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>44855</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>44861</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44865</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44872</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44873</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44875</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44876</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44896</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44897</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44910</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44918</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44942</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44944</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44949</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44952</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44952</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44958</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>44959</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>44960</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44973</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44973</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44985</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>44988</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>44992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>44994</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>45016</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>45016</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>45016</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>45028</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>45033</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>45035</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>45044</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>45071</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>45078</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>45078</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>45079</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>45084</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45086</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45093</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45098</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45099</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>45103</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45103</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45107</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>45107</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>45107</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45159</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt ÄLVSBYN.xlsx
+++ b/Översikt ÄLVSBYN.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44949</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>43875</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44813</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44874</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43739</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44671</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44969</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43348</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43373</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43394</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43397</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43403</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43406</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>43416</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43427</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43427</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43437</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43467</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43467</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43483</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43495</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43496</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43501</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43545</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43598</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43614</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43672</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43677</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43677</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43691</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43705</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43710</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43712</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43713</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>43713</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43718</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43721</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43739</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43770</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43773</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43780</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>43789</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>43803</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>43809</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43818</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43818</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43818</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43832</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43839</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43839</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43868</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43908</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43922</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43930</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44012</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>44041</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>44057</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44085</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44085</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44085</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44085</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>44085</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>44085</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44085</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44092</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>44102</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>44103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>44105</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>44125</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>44125</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>44131</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         <v>44147</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>44174</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44229</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>44229</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>44246</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44271</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44280</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>44300</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44308</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>44308</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44342</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>44342</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>44378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>44385</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>44431</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44446</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44455</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         <v>44455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>44460</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>44460</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8673,7 +8673,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>44462</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44462</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>44463</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>44463</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>44463</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>44466</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>44473</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44476</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44484</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44488</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44491</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>44491</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>44494</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44497</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44517</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>44522</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>44522</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44531</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44543</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44552</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44599</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44602</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>44602</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>44616</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>44617</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44617</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>44617</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>44617</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>44617</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>44645</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>44677</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>44685</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44690</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>44701</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>44705</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44711</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44721</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44721</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44727</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>44728</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44732</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>44732</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>44739</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44739</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44739</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44739</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44739</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44748</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44749</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44781</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44788</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44790</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44795</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44795</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44795</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44818</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44820</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44825</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44834</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44837</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44847</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44851</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44851</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>44853</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>44853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>44855</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>44861</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44865</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44872</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44873</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44875</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44876</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44896</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44897</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44910</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44918</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44942</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44944</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44949</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44952</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44952</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44958</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>44959</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>44960</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44973</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44973</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44985</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>44988</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>44992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>44994</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>45016</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>45016</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>45016</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>45028</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>45033</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>45035</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>45044</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>45071</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>45078</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>45078</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>45079</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>45084</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45086</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45093</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45098</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45099</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>45103</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45103</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45107</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>45107</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>45107</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45159</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt ÄLVSBYN.xlsx
+++ b/Översikt ÄLVSBYN.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,27 +629,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 47721-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 47721-2018.xlsx", "A 47721-2018")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 47721-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 47721-2018.png", "A 47721-2018")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 47721-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 47721-2018.docx", "A 47721-2018")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 47721-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 47721-2018.docx", "A 47721-2018")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 47721-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 47721-2018.docx", "A 47721-2018")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 47721-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 47721-2018.docx", "A 47721-2018")</f>
         <v/>
       </c>
     </row>
@@ -663,7 +663,7 @@
         <v>44949</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -716,27 +716,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 3752-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 3752-2023.xlsx", "A 3752-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 3752-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 3752-2023.png", "A 3752-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 3752-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 3752-2023.docx", "A 3752-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 3752-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 3752-2023.docx", "A 3752-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 3752-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 3752-2023.docx", "A 3752-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 3752-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 3752-2023.docx", "A 3752-2023")</f>
         <v/>
       </c>
     </row>
@@ -750,7 +750,7 @@
         <v>43875</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,27 +802,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 8612-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 8612-2020.xlsx", "A 8612-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 8612-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 8612-2020.png", "A 8612-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 8612-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 8612-2020.docx", "A 8612-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 8612-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 8612-2020.docx", "A 8612-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 8612-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 8612-2020.docx", "A 8612-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 8612-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 8612-2020.docx", "A 8612-2020")</f>
         <v/>
       </c>
     </row>
@@ -836,7 +836,7 @@
         <v>44813</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -893,27 +893,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 38615-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 38615-2022.xlsx", "A 38615-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 38615-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 38615-2022.png", "A 38615-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 38615-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 38615-2022.docx", "A 38615-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 38615-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 38615-2022.docx", "A 38615-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 38615-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 38615-2022.docx", "A 38615-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 38615-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 38615-2022.docx", "A 38615-2022")</f>
         <v/>
       </c>
     </row>
@@ -927,7 +927,7 @@
         <v>44874</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -984,27 +984,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 52513-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 52513-2022.xlsx", "A 52513-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 52513-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 52513-2022.png", "A 52513-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 52513-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 52513-2022.docx", "A 52513-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 52513-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 52513-2022.docx", "A 52513-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 52513-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 52513-2022.docx", "A 52513-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 52513-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 52513-2022.docx", "A 52513-2022")</f>
         <v/>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
         <v>43739</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1074,27 +1074,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 51078-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 51078-2019.xlsx", "A 51078-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 51078-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 51078-2019.png", "A 51078-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 51078-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 51078-2019.docx", "A 51078-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 51078-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 51078-2019.docx", "A 51078-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 51078-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 51078-2019.docx", "A 51078-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 51078-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 51078-2019.docx", "A 51078-2019")</f>
         <v/>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1164,27 +1164,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 58201-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 58201-2021.xlsx", "A 58201-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 58201-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 58201-2021.png", "A 58201-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 58201-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 58201-2021.docx", "A 58201-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 58201-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 58201-2021.docx", "A 58201-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 58201-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 58201-2021.docx", "A 58201-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 58201-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 58201-2021.docx", "A 58201-2021")</f>
         <v/>
       </c>
     </row>
@@ -1198,7 +1198,7 @@
         <v>44671</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1254,27 +1254,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 16470-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 16470-2022.xlsx", "A 16470-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 16470-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 16470-2022.png", "A 16470-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 16470-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 16470-2022.docx", "A 16470-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 16470-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 16470-2022.docx", "A 16470-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 16470-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 16470-2022.docx", "A 16470-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 16470-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 16470-2022.docx", "A 16470-2022")</f>
         <v/>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1344,27 +1344,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 28916-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 28916-2022.xlsx", "A 28916-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 28916-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 28916-2022.png", "A 28916-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 28916-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 28916-2022.docx", "A 28916-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 28916-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 28916-2022.docx", "A 28916-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 28916-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 28916-2022.docx", "A 28916-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 28916-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 28916-2022.docx", "A 28916-2022")</f>
         <v/>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,27 +1434,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 34022-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 34022-2022.xlsx", "A 34022-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 34022-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 34022-2022.png", "A 34022-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 34022-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 34022-2022.docx", "A 34022-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 34022-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 34022-2022.docx", "A 34022-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 34022-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 34022-2022.docx", "A 34022-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 34022-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 34022-2022.docx", "A 34022-2022")</f>
         <v/>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
         <v>44969</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1519,27 +1519,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 7068-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 7068-2023.xlsx", "A 7068-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 7068-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 7068-2023.png", "A 7068-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 7068-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 7068-2023.docx", "A 7068-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 7068-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 7068-2023.docx", "A 7068-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 7068-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 7068-2023.docx", "A 7068-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 7068-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 7068-2023.docx", "A 7068-2023")</f>
         <v/>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
         <v>43348</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43373</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43394</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43397</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43403</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43406</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>43416</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43427</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43427</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43437</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43467</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43467</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43483</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43495</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43496</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43501</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43545</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43598</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43614</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43672</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43677</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43677</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43691</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43705</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43710</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43712</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43713</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>43713</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43718</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43721</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43739</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43770</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43773</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43780</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>43789</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>43803</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>43809</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43818</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43818</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43818</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43832</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43839</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43839</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43868</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43908</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43922</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43930</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44012</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>44041</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>44057</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44085</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44085</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44085</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44085</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>44085</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>44085</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44085</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44092</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>44102</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>44103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>44105</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>44125</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>44125</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>44131</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         <v>44147</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>44174</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44229</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>44229</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>44246</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44271</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44280</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>44300</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44308</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>44308</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44342</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>44342</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>44378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>44385</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>44431</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44446</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44455</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         <v>44455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>44460</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>44460</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8673,7 +8673,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>44462</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44462</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>44463</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>44463</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>44463</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>44466</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>44473</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44476</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44484</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44488</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44491</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>44491</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>44494</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44497</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44517</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>44522</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>44522</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44531</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44543</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44552</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44599</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44602</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>44602</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>44616</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>44617</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44617</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>44617</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>44617</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>44617</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>44645</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>44677</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>44685</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44690</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>44701</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>44705</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44711</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44721</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44721</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44727</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>44728</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44732</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>44732</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>44739</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44739</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44739</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44739</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44739</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44748</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44749</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44781</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44788</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44790</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44795</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44795</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44795</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44818</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44820</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44825</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44834</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44837</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44847</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44851</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44851</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>44853</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>44853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>44855</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>44861</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44865</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44872</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44873</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44875</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44876</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44896</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44897</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44910</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44918</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44942</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44944</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44949</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44952</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44952</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44958</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>44959</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>44960</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44973</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44973</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44985</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>44988</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>44992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>44994</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>45016</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>45016</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>45016</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>45028</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>45033</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>45035</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>45044</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>45071</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>45078</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>45078</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>45079</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>45084</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45086</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45093</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45098</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45099</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>45103</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45103</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45107</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>45107</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>45107</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45159</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt ÄLVSBYN.xlsx
+++ b/Översikt ÄLVSBYN.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44949</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>43875</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44813</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44874</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43739</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44671</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44969</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43348</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43373</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43394</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43397</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43403</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43406</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>43416</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43427</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43427</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43431</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43437</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43467</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43467</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43483</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43495</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43496</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43501</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43545</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43598</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43614</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43672</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43677</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43677</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43691</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43705</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43710</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43712</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43713</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>43713</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43718</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43721</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43739</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43770</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43773</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43780</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>43789</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>43803</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>43809</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43818</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43818</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43818</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43832</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43839</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43839</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43868</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43908</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43922</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43930</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44012</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>44041</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>44057</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44085</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44085</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44085</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44085</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>44085</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>44085</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44085</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44092</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>44102</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>44103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>44105</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>44125</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>44125</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>44131</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         <v>44147</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>44174</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44229</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>44229</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>44246</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44271</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44280</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>44300</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44308</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>44308</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44342</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>44342</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>44378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>44385</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>44431</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44446</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44455</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         <v>44455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>44460</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>44460</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8673,7 +8673,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>44462</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44462</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>44463</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>44463</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>44463</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>44466</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>44473</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44476</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44484</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44488</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44491</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>44491</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>44494</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44497</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44517</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>44522</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>44522</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44531</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44543</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44552</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44599</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44602</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>44602</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>44616</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>44617</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44617</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>44617</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>44617</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>44617</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>44645</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>44677</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>44685</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44690</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>44701</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>44705</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44711</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44721</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44721</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44727</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>44728</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44732</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>44732</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>44739</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44739</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44739</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44739</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44739</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44748</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44749</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44781</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44788</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44790</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44795</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44795</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44795</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44818</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44820</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44825</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44834</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44837</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44847</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44851</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44851</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>44853</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>44853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>44855</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>44861</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44865</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44872</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44873</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44875</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44876</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44896</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44897</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44910</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44918</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44942</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44944</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44949</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44952</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44952</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44958</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>44959</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>44960</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44973</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44973</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44985</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>44988</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>44992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>44994</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>45016</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>45016</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>45016</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>45028</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>45033</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>45035</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>45044</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>45071</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>45078</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>45078</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>45079</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>45084</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45086</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45093</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45098</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45099</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>45103</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45103</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45107</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>45107</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>45107</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45159</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt ÄLVSBYN.xlsx
+++ b/Översikt ÄLVSBYN.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44949</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,874 +743,909 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
+          <t>A 28088-2023</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45099</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ÄLVSBYN</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Fläckporing
+Kolflarnlav
+Lunglav</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 28088-2023.xlsx", "A 28088-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 28088-2023.png", "A 28088-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 28088-2023.docx", "A 28088-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 28088-2023.docx", "A 28088-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 28088-2023.docx", "A 28088-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 28088-2023.docx", "A 28088-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>A 8612-2020</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>43875</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>ÄLVSBYN</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="C5" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ÄLVSBYN</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>2</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>2</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>2</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Rotfingersvamp
 Smalfotad taggsvamp</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 8612-2020.xlsx", "A 8612-2020")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 8612-2020.png", "A 8612-2020")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 8612-2020.docx", "A 8612-2020")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 8612-2020.docx", "A 8612-2020")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 8612-2020.docx", "A 8612-2020")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 8612-2020.docx", "A 8612-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>A 38615-2022</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>44813</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ÄLVSBYN</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="C6" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ÄLVSBYN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G6" t="n">
         <v>5.6</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Blå taggsvamp
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 38615-2022.xlsx", "A 38615-2022")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 38615-2022.png", "A 38615-2022")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 38615-2022.docx", "A 38615-2022")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 38615-2022.docx", "A 38615-2022")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 38615-2022.docx", "A 38615-2022")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 38615-2022.docx", "A 38615-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>A 52513-2022</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B7" s="1" t="n">
         <v>44874</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÄLVSBYN</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="C7" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ÄLVSBYN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G7" t="n">
         <v>2.3</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>2</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>2</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>2</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Lunglav</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 52513-2022.xlsx", "A 52513-2022")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 52513-2022.png", "A 52513-2022")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 52513-2022.docx", "A 52513-2022")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 52513-2022.docx", "A 52513-2022")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 52513-2022.docx", "A 52513-2022")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 52513-2022.docx", "A 52513-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 51078-2019</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>43739</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÄLVSBYN</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="C8" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ÄLVSBYN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G8" t="n">
         <v>14.8</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 51078-2019.xlsx", "A 51078-2019")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 51078-2019.png", "A 51078-2019")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 51078-2019.docx", "A 51078-2019")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 51078-2019.docx", "A 51078-2019")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 51078-2019.docx", "A 51078-2019")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 51078-2019.docx", "A 51078-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 58201-2021</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>44487</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÄLVSBYN</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="C9" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ÄLVSBYN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G9" t="n">
         <v>13.4</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Lappuggla</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 58201-2021.xlsx", "A 58201-2021")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 58201-2021.png", "A 58201-2021")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 58201-2021.docx", "A 58201-2021")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 58201-2021.docx", "A 58201-2021")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 58201-2021.docx", "A 58201-2021")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 58201-2021.docx", "A 58201-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 16470-2022</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>44671</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÄLVSBYN</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="C10" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÄLVSBYN</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G10" t="n">
         <v>6.6</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Tallticka</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 16470-2022.xlsx", "A 16470-2022")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 16470-2022.png", "A 16470-2022")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 16470-2022.docx", "A 16470-2022")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 16470-2022.docx", "A 16470-2022")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 16470-2022.docx", "A 16470-2022")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 16470-2022.docx", "A 16470-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 28916-2022</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>44749</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÄLVSBYN</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="C11" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÄLVSBYN</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>2.2</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Lunglav</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 28916-2022.xlsx", "A 28916-2022")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 28916-2022.png", "A 28916-2022")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 28916-2022.docx", "A 28916-2022")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 28916-2022.docx", "A 28916-2022")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 28916-2022.docx", "A 28916-2022")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 28916-2022.docx", "A 28916-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 34022-2022</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>44791</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÄLVSBYN</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="C12" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ÄLVSBYN</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G12" t="n">
         <v>1.6</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Lunglav</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 34022-2022.xlsx", "A 34022-2022")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 34022-2022.png", "A 34022-2022")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 34022-2022.docx", "A 34022-2022")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 34022-2022.docx", "A 34022-2022")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 34022-2022.docx", "A 34022-2022")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 34022-2022.docx", "A 34022-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 7068-2023</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>44969</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ÄLVSBYN</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="C13" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ÄLVSBYN</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Rosenticka</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/artfynd/A 7068-2023.xlsx", "A 7068-2023")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/kartor/A 7068-2023.png", "A 7068-2023")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomål/A 7068-2023.docx", "A 7068-2023")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/klagomålsmail/A 7068-2023.docx", "A 7068-2023")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsyn/A 7068-2023.docx", "A 7068-2023")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVSBYN/tillsynsmail/A 7068-2023.docx", "A 7068-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 41118-2018</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>43348</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ÄLVSBYN</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr"/>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 48355-2018</t>
+          <t>A 41118-2018</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>43373</v>
+        <v>43348</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1623,7 +1658,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,14 +1695,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 56191-2018</t>
+          <t>A 48355-2018</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>43394</v>
+        <v>43373</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1680,7 +1715,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1717,14 +1752,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 55596-2018</t>
+          <t>A 56191-2018</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>43397</v>
+        <v>43394</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1737,7 +1772,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1774,14 +1809,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 58475-2018</t>
+          <t>A 55596-2018</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>43398</v>
+        <v>43397</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1794,7 +1829,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.7</v>
+        <v>1.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1831,14 +1866,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 59272-2018</t>
+          <t>A 58475-2018</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>43403</v>
+        <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1851,7 +1886,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>22.2</v>
+        <v>4.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1888,14 +1923,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 60603-2018</t>
+          <t>A 59272-2018</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>43406</v>
+        <v>43403</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1908,7 +1943,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.3</v>
+        <v>22.2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1945,14 +1980,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 60812-2018</t>
+          <t>A 60603-2018</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>43410</v>
+        <v>43406</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1965,7 +2000,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2002,14 +2037,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 62633-2018</t>
+          <t>A 60812-2018</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>43413</v>
+        <v>43410</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2021,13 +2056,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>4.4</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2064,14 +2094,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 61512-2018</t>
+          <t>A 62633-2018</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2083,8 +2113,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2121,14 +2156,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 63357-2018</t>
+          <t>A 61512-2018</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>43416</v>
+        <v>43413</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2141,7 +2176,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2178,14 +2213,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 63332-2018</t>
+          <t>A 63357-2018</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2198,7 +2233,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.2</v>
+        <v>4.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2235,14 +2270,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 60622-2018</t>
+          <t>A 63332-2018</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>43420</v>
+        <v>43416</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2254,13 +2289,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>8.1</v>
+        <v>2.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2297,14 +2327,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 65058-2018</t>
+          <t>A 60622-2018</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>43423</v>
+        <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2316,8 +2346,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>2.8</v>
+        <v>8.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2354,14 +2389,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 62184-2018</t>
+          <t>A 65058-2018</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>43425</v>
+        <v>43423</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2373,13 +2408,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2416,14 +2446,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 65981-2018</t>
+          <t>A 62184-2018</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>43426</v>
+        <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2435,8 +2465,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2473,14 +2508,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 63644-2018</t>
+          <t>A 65981-2018</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43427</v>
+        <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2492,13 +2527,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2535,14 +2565,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 63623-2018</t>
+          <t>A 63644-2018</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
         <v>43427</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2560,7 +2590,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>14.6</v>
+        <v>3.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2597,14 +2627,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 63621-2018</t>
+          <t>A 63623-2018</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
         <v>43427</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2622,7 +2652,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>14.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2659,14 +2689,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 63620-2018</t>
+          <t>A 63621-2018</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2684,7 +2714,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2721,14 +2751,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 63624-2018</t>
+          <t>A 63620-2018</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2746,7 +2776,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>8.300000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2783,14 +2813,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 64445-2018</t>
+          <t>A 63624-2018</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>43431</v>
+        <v>43427</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2804,11 +2834,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2845,14 +2875,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 66532-2018</t>
+          <t>A 64445-2018</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>43437</v>
+        <v>43431</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2864,8 +2894,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2902,14 +2937,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 54-2019</t>
+          <t>A 66532-2018</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>43467</v>
+        <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2921,13 +2956,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2964,14 +2994,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 2033-2019</t>
+          <t>A 54-2019</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
         <v>43467</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2983,8 +3013,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>9.300000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3021,14 +3056,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 5972-2019</t>
+          <t>A 2033-2019</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43483</v>
+        <v>43467</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3041,7 +3076,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3078,14 +3113,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 5986-2019</t>
+          <t>A 5972-2019</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43493</v>
+        <v>43483</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3097,13 +3132,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3140,14 +3170,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 7061-2019</t>
+          <t>A 5986-2019</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>43495</v>
+        <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3161,11 +3191,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3202,14 +3232,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 7063-2019</t>
+          <t>A 7061-2019</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3227,7 +3257,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3264,14 +3294,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 7357-2019</t>
+          <t>A 7063-2019</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>43496</v>
+        <v>43495</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3289,7 +3319,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5.5</v>
+        <v>0.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3326,14 +3356,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 8264-2019</t>
+          <t>A 7357-2019</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>43501</v>
+        <v>43496</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3388,14 +3418,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 16188-2019</t>
+          <t>A 8264-2019</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>43545</v>
+        <v>43501</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3407,8 +3437,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>0.9</v>
+        <v>5.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3445,14 +3480,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 23610-2019</t>
+          <t>A 16188-2019</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>43594</v>
+        <v>43545</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3464,13 +3499,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3507,14 +3537,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 23647-2019</t>
+          <t>A 23610-2019</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3526,8 +3556,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>9.199999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3564,14 +3599,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 23642-2019</t>
+          <t>A 23647-2019</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3584,7 +3619,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3621,14 +3656,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 24129-2019</t>
+          <t>A 23642-2019</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>43598</v>
+        <v>43594</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3638,11 +3673,6 @@
       <c r="E48" t="inlineStr">
         <is>
           <t>ÄLVSBYN</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -3683,14 +3713,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 25214-2019</t>
+          <t>A 24129-2019</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>43600</v>
+        <v>43598</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3702,8 +3732,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>6.6</v>
+        <v>5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3740,14 +3775,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 26818-2019</t>
+          <t>A 25214-2019</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>43607</v>
+        <v>43600</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3760,7 +3795,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.2</v>
+        <v>6.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3797,14 +3832,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 27233-2019</t>
+          <t>A 26818-2019</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>43614</v>
+        <v>43607</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3816,13 +3851,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>7</v>
+        <v>1.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3859,14 +3889,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 34165-2019</t>
+          <t>A 27233-2019</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>43655</v>
+        <v>43614</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3880,11 +3910,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>11.2</v>
+        <v>7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3921,14 +3951,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 36781-2019</t>
+          <t>A 34165-2019</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>43672</v>
+        <v>43655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3940,8 +3970,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>9.699999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3978,14 +4013,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 37313-2019</t>
+          <t>A 36781-2019</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>43677</v>
+        <v>43672</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3998,7 +4033,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>6.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4035,14 +4070,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 37311-2019</t>
+          <t>A 37313-2019</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
         <v>43677</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4055,7 +4090,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>11.4</v>
+        <v>6.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4092,14 +4127,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 39333-2019</t>
+          <t>A 37311-2019</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>43690</v>
+        <v>43677</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4111,13 +4146,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>4.3</v>
+        <v>11.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4154,14 +4184,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 39670-2019</t>
+          <t>A 39333-2019</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>43691</v>
+        <v>43690</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4216,14 +4246,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 42887-2019</t>
+          <t>A 39670-2019</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>43705</v>
+        <v>43691</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4241,7 +4271,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4278,14 +4308,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 45337-2019</t>
+          <t>A 42887-2019</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>43710</v>
+        <v>43705</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4297,8 +4327,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4335,14 +4370,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 45428-2019</t>
+          <t>A 45337-2019</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4355,7 +4390,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4392,14 +4427,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 44641-2019</t>
+          <t>A 45428-2019</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>43712</v>
+        <v>43710</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4411,13 +4446,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4454,14 +4484,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 45130-2019</t>
+          <t>A 44641-2019</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>43713</v>
+        <v>43712</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4479,7 +4509,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4516,14 +4546,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 45185-2019</t>
+          <t>A 45130-2019</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
         <v>43713</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4541,7 +4571,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4578,14 +4608,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 45184-2019</t>
+          <t>A 45185-2019</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
         <v>43713</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4603,7 +4633,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4640,14 +4670,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 46363-2019</t>
+          <t>A 45184-2019</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>43718</v>
+        <v>43713</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4661,11 +4691,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>12.7</v>
+        <v>3.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4702,14 +4732,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 46362-2019</t>
+          <t>A 46363-2019</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
         <v>43718</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4727,7 +4757,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.5</v>
+        <v>12.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4764,14 +4794,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 47099-2019</t>
+          <t>A 46362-2019</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>43721</v>
+        <v>43718</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4789,7 +4819,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.9</v>
+        <v>1.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4826,14 +4856,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 48608-2019</t>
+          <t>A 47099-2019</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>43727</v>
+        <v>43721</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4845,8 +4875,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4883,14 +4918,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 51067-2019</t>
+          <t>A 48608-2019</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>43739</v>
+        <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4902,13 +4937,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4945,14 +4975,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 53821-2019</t>
+          <t>A 51067-2019</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43742</v>
+        <v>43739</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4964,8 +4994,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>6.5</v>
+        <v>0.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5002,14 +5037,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 54007-2019</t>
+          <t>A 53821-2019</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5022,7 +5057,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5059,14 +5094,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 53818-2019</t>
+          <t>A 54007-2019</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>43752</v>
+        <v>43742</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5078,13 +5113,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5121,14 +5151,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 59343-2019</t>
+          <t>A 53818-2019</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>43770</v>
+        <v>43752</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5140,8 +5170,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5178,14 +5213,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 59263-2019</t>
+          <t>A 59343-2019</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>43773</v>
+        <v>43770</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5198,7 +5233,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5235,14 +5270,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 61696-2019</t>
+          <t>A 59263-2019</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>43780</v>
+        <v>43773</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5255,7 +5290,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5292,14 +5327,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 63602-2019</t>
+          <t>A 61696-2019</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>43789</v>
+        <v>43780</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5312,7 +5347,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5349,14 +5384,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 65482-2019</t>
+          <t>A 63602-2019</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43803</v>
+        <v>43789</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5369,7 +5404,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5406,14 +5441,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 66403-2019</t>
+          <t>A 65482-2019</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43809</v>
+        <v>43803</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5425,13 +5460,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>16.9</v>
+        <v>3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5468,14 +5498,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 68670-2019</t>
+          <t>A 66403-2019</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>43818</v>
+        <v>43809</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5487,8 +5517,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>16.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5525,14 +5560,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 68991-2019</t>
+          <t>A 68670-2019</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
         <v>43818</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5545,7 +5580,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5582,14 +5617,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 68498-2019</t>
+          <t>A 68991-2019</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
         <v>43818</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5601,13 +5636,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5644,14 +5674,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 1661-2020</t>
+          <t>A 68498-2019</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>43832</v>
+        <v>43818</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5663,8 +5693,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5701,14 +5736,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 2133-2020</t>
+          <t>A 1661-2020</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>43839</v>
+        <v>43832</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5721,7 +5756,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5758,14 +5793,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 2129-2020</t>
+          <t>A 2133-2020</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
         <v>43839</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5778,7 +5813,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5815,14 +5850,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 7019-2020</t>
+          <t>A 2129-2020</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>43868</v>
+        <v>43839</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5834,13 +5869,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>16.3</v>
+        <v>2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5877,14 +5907,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 16705-2020</t>
+          <t>A 7019-2020</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>43908</v>
+        <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5898,11 +5928,11 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>7</v>
+        <v>16.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5939,14 +5969,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 17786-2020</t>
+          <t>A 16705-2020</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>43922</v>
+        <v>43908</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5958,8 +5988,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5996,14 +6031,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 18866-2020</t>
+          <t>A 17786-2020</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>43930</v>
+        <v>43922</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6016,7 +6051,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.8</v>
+        <v>6.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6053,14 +6088,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 22470-2020</t>
+          <t>A 18866-2020</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>43963</v>
+        <v>43930</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6072,13 +6107,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6115,14 +6145,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 31241-2020</t>
+          <t>A 22470-2020</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44012</v>
+        <v>43963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6140,7 +6170,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>5.9</v>
+        <v>1.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6177,14 +6207,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 35323-2020</t>
+          <t>A 31241-2020</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44041</v>
+        <v>44012</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6202,7 +6232,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.8</v>
+        <v>5.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6239,14 +6269,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 37955-2020</t>
+          <t>A 35323-2020</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44057</v>
+        <v>44041</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6264,7 +6294,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6301,14 +6331,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 44758-2020</t>
+          <t>A 37955-2020</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44085</v>
+        <v>44057</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6326,7 +6356,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6363,14 +6393,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 44685-2020</t>
+          <t>A 44758-2020</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
         <v>44085</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6388,7 +6418,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6425,14 +6455,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 44713-2020</t>
+          <t>A 44685-2020</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
         <v>44085</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6444,8 +6474,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6482,14 +6517,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 44716-2020</t>
+          <t>A 44713-2020</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
         <v>44085</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6501,13 +6536,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6544,14 +6574,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 44523-2020</t>
+          <t>A 44716-2020</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
         <v>44085</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6569,7 +6599,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6606,14 +6636,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 44682-2020</t>
+          <t>A 44523-2020</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
         <v>44085</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6631,7 +6661,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6668,14 +6698,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 44756-2020</t>
+          <t>A 44682-2020</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
         <v>44085</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6693,7 +6723,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6730,14 +6760,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 45627-2020</t>
+          <t>A 44756-2020</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44090</v>
+        <v>44085</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6755,7 +6785,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6792,14 +6822,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 46299-2020</t>
+          <t>A 45627-2020</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6817,7 +6847,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6854,14 +6884,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 49319-2020</t>
+          <t>A 46299-2020</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44102</v>
+        <v>44092</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6873,8 +6903,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6911,14 +6946,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 49730-2020</t>
+          <t>A 49319-2020</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6931,7 +6966,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6968,14 +7003,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 48971-2020</t>
+          <t>A 49730-2020</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44105</v>
+        <v>44103</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6988,7 +7023,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7025,14 +7060,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 54418-2020</t>
+          <t>A 48971-2020</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44125</v>
+        <v>44105</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7045,7 +7080,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7082,14 +7117,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 54412-2020</t>
+          <t>A 54418-2020</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
         <v>44125</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7102,7 +7137,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7139,14 +7174,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 55873-2020</t>
+          <t>A 54412-2020</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44131</v>
+        <v>44125</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7159,7 +7194,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7196,14 +7231,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 59153-2020</t>
+          <t>A 55873-2020</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44147</v>
+        <v>44131</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7215,13 +7250,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>10.9</v>
+        <v>2.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7258,14 +7288,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 59464-2020</t>
+          <t>A 59153-2020</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7277,8 +7307,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>4.9</v>
+        <v>10.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7315,14 +7350,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 66296-2020</t>
+          <t>A 59464-2020</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44174</v>
+        <v>44148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7335,7 +7370,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.8</v>
+        <v>4.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7372,14 +7407,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 5410-2021</t>
+          <t>A 66296-2020</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44229</v>
+        <v>44174</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7392,7 +7427,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7429,14 +7464,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 5455-2021</t>
+          <t>A 5410-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
         <v>44229</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7449,7 +7484,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7486,14 +7521,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 8847-2021</t>
+          <t>A 5455-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44246</v>
+        <v>44229</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7505,13 +7540,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7548,14 +7578,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 8850-2021</t>
+          <t>A 8847-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7573,7 +7603,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>11.3</v>
+        <v>1.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7610,14 +7640,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 12950-2021</t>
+          <t>A 8850-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44271</v>
+        <v>44246</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7629,8 +7659,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>14.3</v>
+        <v>11.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7667,14 +7702,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 14866-2021</t>
+          <t>A 12950-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7686,13 +7721,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>1.5</v>
+        <v>14.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7729,14 +7759,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 17784-2021</t>
+          <t>A 14866-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44300</v>
+        <v>44280</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7748,8 +7778,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7786,14 +7821,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 19294-2021</t>
+          <t>A 17784-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44308</v>
+        <v>44300</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7806,7 +7841,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7843,14 +7878,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 19270-2021</t>
+          <t>A 19294-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
         <v>44308</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7863,7 +7898,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7900,14 +7935,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 24990-2021</t>
+          <t>A 19270-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44341</v>
+        <v>44308</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7920,7 +7955,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>10.2</v>
+        <v>1.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7957,14 +7992,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 25360-2021</t>
+          <t>A 24990-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7976,13 +8011,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>1.4</v>
+        <v>10.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8019,14 +8049,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 25363-2021</t>
+          <t>A 25360-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
         <v>44342</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8044,7 +8074,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8081,14 +8111,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 33823-2021</t>
+          <t>A 25363-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44378</v>
+        <v>44342</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8100,8 +8130,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8138,14 +8173,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 35520-2021</t>
+          <t>A 33823-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44385</v>
+        <v>44378</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8157,13 +8192,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>8.4</v>
+        <v>1.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8200,14 +8230,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 43005-2021</t>
+          <t>A 35520-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44431</v>
+        <v>44385</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8219,8 +8249,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>5.5</v>
+        <v>8.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8257,14 +8292,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 46881-2021</t>
+          <t>A 43005-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44446</v>
+        <v>44431</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8277,7 +8312,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8314,14 +8349,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 47046-2021</t>
+          <t>A 46881-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
         <v>44446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8334,7 +8369,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8371,14 +8406,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 47695-2021</t>
+          <t>A 47046-2021</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44448</v>
+        <v>44446</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8391,7 +8426,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8428,14 +8463,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 49773-2021</t>
+          <t>A 47695-2021</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44455</v>
+        <v>44448</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8447,13 +8482,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8490,14 +8520,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 49843-2021</t>
+          <t>A 49773-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
         <v>44455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8515,7 +8545,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>7.8</v>
+        <v>2.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8552,14 +8582,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 50744-2021</t>
+          <t>A 49843-2021</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44460</v>
+        <v>44455</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8571,8 +8601,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>3.5</v>
+        <v>7.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8609,14 +8644,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 50746-2021</t>
+          <t>A 50744-2021</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
         <v>44460</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8629,7 +8664,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8666,14 +8701,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 50917-2021</t>
+          <t>A 50746-2021</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8686,7 +8721,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8723,14 +8758,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 50924-2021</t>
+          <t>A 50917-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8780,14 +8815,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 51912-2021</t>
+          <t>A 50924-2021</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44462</v>
+        <v>44460</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8800,7 +8835,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>26.5</v>
+        <v>3.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8837,14 +8872,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 51825-2021</t>
+          <t>A 51912-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
         <v>44462</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8856,13 +8891,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>3.1</v>
+        <v>26.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8899,14 +8929,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 51829-2021</t>
+          <t>A 51825-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
         <v>44462</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8924,7 +8954,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8961,14 +8991,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 52177-2021</t>
+          <t>A 51829-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44463</v>
+        <v>44462</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8980,8 +9010,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>36</v>
+        <v>2.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9018,14 +9053,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 51998-2021</t>
+          <t>A 52177-2021</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
         <v>44463</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9038,7 +9073,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.5</v>
+        <v>36</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9075,14 +9110,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 52253-2021</t>
+          <t>A 51998-2021</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
         <v>44463</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9094,13 +9129,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9137,14 +9167,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 52716-2021</t>
+          <t>A 52253-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44466</v>
+        <v>44463</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9158,11 +9188,11 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>5.1</v>
+        <v>1.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9199,14 +9229,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 54804-2021</t>
+          <t>A 52716-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44473</v>
+        <v>44466</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9224,7 +9254,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9261,14 +9291,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 55775-2021</t>
+          <t>A 54804-2021</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44476</v>
+        <v>44473</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9280,8 +9310,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9318,14 +9353,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 57816-2021</t>
+          <t>A 55775-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44484</v>
+        <v>44476</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9338,7 +9373,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9375,14 +9410,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 58532-2021</t>
+          <t>A 57816-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44488</v>
+        <v>44484</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9394,13 +9429,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9437,14 +9467,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 59487-2021</t>
+          <t>A 58532-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44491</v>
+        <v>44488</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9462,7 +9492,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9499,14 +9529,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 59553-2021</t>
+          <t>A 59487-2021</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
         <v>44491</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9518,8 +9548,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9556,14 +9591,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 59742-2021</t>
+          <t>A 59553-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44494</v>
+        <v>44491</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9613,14 +9648,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 60030-2021</t>
+          <t>A 59742-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
         <v>44494</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9633,7 +9668,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9670,14 +9705,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 61009-2021</t>
+          <t>A 60030-2021</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44497</v>
+        <v>44494</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9690,7 +9725,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>16.2</v>
+        <v>2.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9727,14 +9762,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 65819-2021</t>
+          <t>A 61009-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44517</v>
+        <v>44497</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9746,13 +9781,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>2.8</v>
+        <v>16.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9789,14 +9819,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 67106-2021</t>
+          <t>A 65819-2021</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44522</v>
+        <v>44517</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9808,8 +9838,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9846,14 +9881,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 67103-2021</t>
+          <t>A 67106-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
         <v>44522</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9866,7 +9901,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9903,14 +9938,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 69314-2021</t>
+          <t>A 67103-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44531</v>
+        <v>44522</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9923,7 +9958,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9960,14 +9995,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 71923-2021</t>
+          <t>A 69314-2021</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44543</v>
+        <v>44531</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9979,13 +10014,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10022,14 +10052,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 73774-2021</t>
+          <t>A 71923-2021</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44552</v>
+        <v>44543</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10043,11 +10073,11 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10084,14 +10114,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 6028-2022</t>
+          <t>A 73774-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44599</v>
+        <v>44552</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10109,7 +10139,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>27.9</v>
+        <v>5.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10146,14 +10176,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 6831-2022</t>
+          <t>A 6028-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44602</v>
+        <v>44599</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10165,8 +10195,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>3</v>
+        <v>27.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10203,14 +10238,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 6820-2022</t>
+          <t>A 6831-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
         <v>44602</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10223,7 +10258,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10260,14 +10295,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 9333-2022</t>
+          <t>A 6820-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44616</v>
+        <v>44602</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10280,7 +10315,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>5.1</v>
+        <v>2.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10317,14 +10352,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 9623-2022</t>
+          <t>A 9333-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44617</v>
+        <v>44616</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10337,7 +10372,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10374,14 +10409,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 9631-2022</t>
+          <t>A 9623-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
         <v>44617</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10394,7 +10429,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10431,14 +10466,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 9643-2022</t>
+          <t>A 9631-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
         <v>44617</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10451,7 +10486,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10488,14 +10523,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 9618-2022</t>
+          <t>A 9643-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
         <v>44617</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10508,7 +10543,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>5.6</v>
+        <v>4.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10545,14 +10580,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 9634-2022</t>
+          <t>A 9618-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
         <v>44617</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10565,7 +10600,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10602,14 +10637,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 10812-2022</t>
+          <t>A 9634-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44627</v>
+        <v>44617</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10622,7 +10657,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10659,14 +10694,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 13456-2022</t>
+          <t>A 10812-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44645</v>
+        <v>44627</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10679,7 +10714,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10716,14 +10751,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 17094-2022</t>
+          <t>A 13456-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44677</v>
+        <v>44645</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10736,7 +10771,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10773,14 +10808,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 18268-2022</t>
+          <t>A 17094-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44685</v>
+        <v>44677</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10793,7 +10828,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>6.9</v>
+        <v>0.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10830,14 +10865,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 18841-2022</t>
+          <t>A 18268-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44690</v>
+        <v>44685</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10850,7 +10885,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>5.7</v>
+        <v>6.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10887,14 +10922,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 20810-2022</t>
+          <t>A 18841-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44701</v>
+        <v>44690</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10907,7 +10942,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>8.4</v>
+        <v>5.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10944,14 +10979,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 21313-2022</t>
+          <t>A 20810-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44705</v>
+        <v>44701</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10964,7 +10999,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>21.5</v>
+        <v>8.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11001,14 +11036,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 22098-2022</t>
+          <t>A 21313-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44711</v>
+        <v>44705</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11020,13 +11055,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>12.8</v>
+        <v>21.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11063,14 +11093,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 23536-2022</t>
+          <t>A 22098-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44721</v>
+        <v>44711</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11084,11 +11114,11 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3.8</v>
+        <v>12.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11125,14 +11155,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 23581-2022</t>
+          <t>A 23536-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
         <v>44721</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11150,7 +11180,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11187,14 +11217,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 24665-2022</t>
+          <t>A 23581-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44727</v>
+        <v>44721</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11206,8 +11236,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11244,14 +11279,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 24760-2022</t>
+          <t>A 24665-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44728</v>
+        <v>44727</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11264,7 +11299,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>14.2</v>
+        <v>0.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11301,14 +11336,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 25449-2022</t>
+          <t>A 24760-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44732</v>
+        <v>44728</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11321,7 +11356,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2</v>
+        <v>14.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11358,14 +11393,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 25455-2022</t>
+          <t>A 25449-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
         <v>44732</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11378,7 +11413,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11415,14 +11450,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 26608-2022</t>
+          <t>A 25455-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44739</v>
+        <v>44732</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11435,7 +11470,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11472,14 +11507,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 26740-2022</t>
+          <t>A 26608-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
         <v>44739</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11491,13 +11526,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>6.3</v>
+        <v>4.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11534,14 +11564,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 26610-2022</t>
+          <t>A 26740-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
         <v>44739</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11553,8 +11583,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>8.6</v>
+        <v>6.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11591,14 +11626,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 26741-2022</t>
+          <t>A 26610-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
         <v>44739</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11610,13 +11645,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>2.8</v>
+        <v>8.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11653,14 +11683,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 26579-2022</t>
+          <t>A 26741-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
         <v>44739</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11672,8 +11702,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>10.7</v>
+        <v>2.8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11710,14 +11745,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 28637-2022</t>
+          <t>A 26579-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44748</v>
+        <v>44739</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11729,13 +11764,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>0.6</v>
+        <v>10.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11772,14 +11802,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 29003-2022</t>
+          <t>A 28637-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44749</v>
+        <v>44748</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11797,7 +11827,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>6.7</v>
+        <v>0.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11834,14 +11864,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 32368-2022</t>
+          <t>A 29003-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44781</v>
+        <v>44749</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11853,8 +11883,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11891,14 +11926,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 33407-2022</t>
+          <t>A 32368-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44788</v>
+        <v>44781</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11911,7 +11946,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11948,14 +11983,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 34013-2022</t>
+          <t>A 33407-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44790</v>
+        <v>44788</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11967,13 +12002,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12010,14 +12040,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 34656-2022</t>
+          <t>A 34013-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44795</v>
+        <v>44790</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12029,8 +12059,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>1.5</v>
+        <v>7.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12067,14 +12102,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 34863-2022</t>
+          <t>A 34656-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
         <v>44795</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12087,7 +12122,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12124,14 +12159,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 34609-2022</t>
+          <t>A 34863-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
         <v>44795</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12144,7 +12179,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12181,14 +12216,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 39444-2022</t>
+          <t>A 34609-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44818</v>
+        <v>44795</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12201,7 +12236,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12238,14 +12273,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 40691-2022</t>
+          <t>A 39444-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44820</v>
+        <v>44818</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12295,14 +12330,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 41159-2022</t>
+          <t>A 40691-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44825</v>
+        <v>44820</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12315,7 +12350,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12352,14 +12387,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 43361-2022</t>
+          <t>A 41159-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44834</v>
+        <v>44825</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12371,13 +12406,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>11.4</v>
+        <v>0.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12414,14 +12444,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 43579-2022</t>
+          <t>A 43361-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44837</v>
+        <v>44834</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12433,8 +12463,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>6.6</v>
+        <v>11.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12471,14 +12506,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 46307-2022</t>
+          <t>A 43579-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44847</v>
+        <v>44837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12491,7 +12526,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>6.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12528,14 +12563,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 46308-2022</t>
+          <t>A 46307-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
         <v>44847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12548,7 +12583,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>18.7</v>
+        <v>2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12585,14 +12620,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 46980-2022</t>
+          <t>A 46308-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44851</v>
+        <v>44847</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12604,13 +12639,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>18.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12647,14 +12677,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 47121-2022</t>
+          <t>A 46980-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
         <v>44851</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12666,8 +12696,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12704,14 +12739,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 47427-2022</t>
+          <t>A 47121-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44853</v>
+        <v>44851</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12724,7 +12759,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12761,14 +12796,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 47417-2022</t>
+          <t>A 47427-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
         <v>44853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12781,7 +12816,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>17.8</v>
+        <v>4.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12818,14 +12853,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 48742-2022</t>
+          <t>A 47417-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44855</v>
+        <v>44853</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12838,7 +12873,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>9.199999999999999</v>
+        <v>17.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12875,14 +12910,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 49441-2022</t>
+          <t>A 48742-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44861</v>
+        <v>44855</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12894,13 +12929,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>1.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12937,14 +12967,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 50324-2022</t>
+          <t>A 49441-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44865</v>
+        <v>44861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12958,11 +12988,11 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12999,14 +13029,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 51063-2022</t>
+          <t>A 50324-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44868</v>
+        <v>44865</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13018,8 +13048,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13056,14 +13091,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 51981-2022</t>
+          <t>A 51063-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44872</v>
+        <v>44868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13076,7 +13111,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13113,14 +13148,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 52087-2022</t>
+          <t>A 51981-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44873</v>
+        <v>44872</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13133,7 +13168,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13170,14 +13205,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 52327-2022</t>
+          <t>A 52087-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
         <v>44873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13190,7 +13225,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13227,14 +13262,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 52989-2022</t>
+          <t>A 52327-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44875</v>
+        <v>44873</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13247,7 +13282,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>6.6</v>
+        <v>3.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13284,14 +13319,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 53037-2022</t>
+          <t>A 52989-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44876</v>
+        <v>44875</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,13 +13338,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>3.8</v>
+        <v>6.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13346,14 +13376,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 58908-2022</t>
+          <t>A 53037-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44896</v>
+        <v>44876</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13365,8 +13395,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>7.8</v>
+        <v>3.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13403,14 +13438,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 57785-2022</t>
+          <t>A 58908-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44897</v>
+        <v>44896</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13422,13 +13457,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>2.6</v>
+        <v>7.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13465,14 +13495,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 60351-2022</t>
+          <t>A 57785-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44910</v>
+        <v>44897</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13484,8 +13514,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G215" t="n">
-        <v>23.4</v>
+        <v>2.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13522,14 +13557,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 61650-2022</t>
+          <t>A 60351-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44916</v>
+        <v>44910</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13542,7 +13577,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2</v>
+        <v>23.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13579,14 +13614,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 22-2023</t>
+          <t>A 61650-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44918</v>
+        <v>44916</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13599,7 +13634,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>8.199999999999999</v>
+        <v>2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13636,14 +13671,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 43-2023</t>
+          <t>A 22-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
         <v>44918</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13656,7 +13691,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13693,14 +13728,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 2293-2023</t>
+          <t>A 43-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44942</v>
+        <v>44918</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13713,7 +13748,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13750,14 +13785,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 2290-2023</t>
+          <t>A 2293-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13770,7 +13805,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13807,14 +13842,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 2595-2023</t>
+          <t>A 2290-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44943</v>
+        <v>44942</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13826,13 +13861,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13869,14 +13899,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 2678-2023</t>
+          <t>A 2595-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13890,11 +13920,11 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.7</v>
+        <v>4.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13931,14 +13961,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 4013-2023</t>
+          <t>A 2678-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44949</v>
+        <v>44944</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13950,8 +13980,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G223" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13988,14 +14023,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 4128-2023</t>
+          <t>A 4013-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44952</v>
+        <v>44949</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14008,7 +14043,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14045,14 +14080,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 4127-2023</t>
+          <t>A 4128-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
         <v>44952</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14065,7 +14100,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.1</v>
+        <v>4.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14102,14 +14137,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 5659-2023</t>
+          <t>A 4127-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44958</v>
+        <v>44952</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14122,7 +14157,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>5.1</v>
+        <v>2.1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14159,14 +14194,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 6004-2023</t>
+          <t>A 5659-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44959</v>
+        <v>44958</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14179,7 +14214,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14216,14 +14251,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 5635-2023</t>
+          <t>A 6004-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44960</v>
+        <v>44959</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14236,7 +14271,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14273,14 +14308,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 8723-2023</t>
+          <t>A 5635-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44973</v>
+        <v>44960</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14293,7 +14328,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14330,14 +14365,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 8739-2023</t>
+          <t>A 8723-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
         <v>44973</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14350,7 +14385,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14387,14 +14422,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 10066-2023</t>
+          <t>A 8739-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44985</v>
+        <v>44973</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14407,7 +14442,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>7.6</v>
+        <v>5.1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14444,14 +14479,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 10705-2023</t>
+          <t>A 10066-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44988</v>
+        <v>44985</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14464,7 +14499,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>6.1</v>
+        <v>7.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14501,14 +14536,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 11293-2023</t>
+          <t>A 10705-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44992</v>
+        <v>44988</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14521,7 +14556,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14558,14 +14593,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 11835-2023</t>
+          <t>A 11293-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44994</v>
+        <v>44992</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14578,7 +14613,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>3.6</v>
+        <v>5.6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14615,14 +14650,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 15255-2023</t>
+          <t>A 11835-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45016</v>
+        <v>44994</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14635,7 +14670,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14672,14 +14707,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 15250-2023</t>
+          <t>A 15255-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
         <v>45016</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14692,7 +14727,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14729,14 +14764,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 15251-2023</t>
+          <t>A 15250-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
         <v>45016</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14749,7 +14784,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.3</v>
+        <v>4.9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14786,14 +14821,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 16914-2023</t>
+          <t>A 15251-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45028</v>
+        <v>45016</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14806,7 +14841,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>6.4</v>
+        <v>2.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14843,14 +14878,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 16991-2023</t>
+          <t>A 16914-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45033</v>
+        <v>45028</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14863,7 +14898,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>11.2</v>
+        <v>6.4</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14900,14 +14935,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 17445-2023</t>
+          <t>A 16991-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45035</v>
+        <v>45033</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14919,13 +14954,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G240" t="n">
-        <v>2.7</v>
+        <v>11.2</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14962,14 +14992,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 19142-2023</t>
+          <t>A 17445-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45044</v>
+        <v>45035</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14981,8 +15011,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>11.4</v>
+        <v>2.7</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15019,14 +15054,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 23201-2023</t>
+          <t>A 19142-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45071</v>
+        <v>45044</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15039,7 +15074,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>3.4</v>
+        <v>11.4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15076,14 +15111,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 25158-2023</t>
+          <t>A 23201-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45078</v>
+        <v>45071</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15096,7 +15131,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15133,14 +15168,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 25102-2023</t>
+          <t>A 25158-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
         <v>45078</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15153,7 +15188,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15190,14 +15225,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 24922-2023</t>
+          <t>A 25102-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
         <v>45078</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15210,7 +15245,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15247,14 +15282,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 24125-2023</t>
+          <t>A 24922-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45079</v>
+        <v>45078</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15266,13 +15301,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G246" t="n">
-        <v>5.2</v>
+        <v>1.2</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15309,14 +15339,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 24737-2023</t>
+          <t>A 24125-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45084</v>
+        <v>45079</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15330,11 +15360,11 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>10.3</v>
+        <v>5.2</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15371,14 +15401,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 25137-2023</t>
+          <t>A 24737-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45086</v>
+        <v>45084</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15392,11 +15422,11 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.5</v>
+        <v>10.3</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15433,14 +15463,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 26944-2023</t>
+          <t>A 25137-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45093</v>
+        <v>45086</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15458,7 +15488,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>14.1</v>
+        <v>1.5</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15495,14 +15525,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 29638-2023</t>
+          <t>A 26944-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45098</v>
+        <v>45093</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15514,8 +15544,13 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G250" t="n">
-        <v>2.8</v>
+        <v>14.1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15552,14 +15587,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 28088-2023</t>
+          <t>A 29638-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45099</v>
+        <v>45098</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15571,13 +15606,8 @@
           <t>ÄLVSBYN</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G251" t="n">
-        <v>5.6</v>
+        <v>2.8</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15621,7 +15651,7 @@
         <v>45103</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15683,7 +15713,7 @@
         <v>45103</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15745,7 +15775,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15802,7 +15832,7 @@
         <v>45107</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15864,7 +15894,7 @@
         <v>45107</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15926,7 +15956,7 @@
         <v>45107</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15988,7 +16018,7 @@
         <v>45159</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16045,7 +16075,7 @@
         <v>45159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16102,7 +16132,7 @@
         <v>45159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16159,7 +16189,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16216,7 +16246,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt ÄLVSBYN.xlsx
+++ b/Översikt ÄLVSBYN.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44949</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45099</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43875</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44813</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44874</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44487</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44671</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44749</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44791</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>44969</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>43348</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>43373</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>43394</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         <v>43397</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>43403</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         <v>43406</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>43410</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43413</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43416</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43423</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43427</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43427</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43427</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43431</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43467</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43467</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43483</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>43495</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43496</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43501</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>43545</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>43594</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43598</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43600</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43607</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43614</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>43655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>43672</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>43677</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>43677</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43690</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43691</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43705</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>43710</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>43712</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43713</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43713</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43713</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43718</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43718</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43721</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43739</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43742</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43752</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43770</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43773</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43780</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43789</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43803</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43809</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43818</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43818</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43818</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43832</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43839</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43839</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43908</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43922</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43930</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44012</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44041</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>44057</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44085</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44085</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44085</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44085</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44085</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>44085</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44085</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44090</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>44092</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44102</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>44103</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>44105</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>44125</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>44125</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>44131</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>44147</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44174</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44229</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44229</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>44246</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44271</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44280</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44300</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44308</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44308</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44341</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>44342</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>44342</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44378</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44385</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44431</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44446</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44448</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>44455</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44460</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44460</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44462</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44462</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44462</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44463</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>44463</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>44463</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44466</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>44473</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>44476</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>44484</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>44488</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44491</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>44491</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44494</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44494</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44497</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44517</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>44522</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>44522</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44531</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>44543</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44552</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>44599</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>44602</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44602</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>44616</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>44617</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44617</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>44617</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>44617</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>44617</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44627</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44645</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44677</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44685</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44690</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44701</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44705</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44711</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44721</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44721</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44727</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>44728</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>44732</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44732</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44739</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44739</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>44739</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>44739</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>44739</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>44748</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44749</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44781</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44788</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44790</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>44795</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>44795</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>44795</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12280,7 +12280,7 @@
         <v>44818</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>44820</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44825</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44834</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12570,7 +12570,7 @@
         <v>44847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>44847</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>44851</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>44851</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>44853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>44853</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>44855</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>44861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>44865</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44872</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>44873</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44875</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44876</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44896</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44897</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44910</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44916</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44918</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44918</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44942</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44943</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>44944</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>44949</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>44952</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>44952</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>44958</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44959</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44960</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44973</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>44973</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>44985</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>44988</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44992</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44994</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>45016</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>45016</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>45016</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>45028</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>45033</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>45035</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>45044</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>45071</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>45078</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>45078</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>45078</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>45079</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>45084</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>45086</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>45093</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>45098</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>45103</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>45103</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>45107</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15894,7 +15894,7 @@
         <v>45107</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>45107</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16018,7 +16018,7 @@
         <v>45159</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>45159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>45159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt ÄLVSBYN.xlsx
+++ b/Översikt ÄLVSBYN.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44949</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45099</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43875</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44813</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44874</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44487</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44671</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44749</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44791</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>44969</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>43348</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>43373</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>43394</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         <v>43397</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>43403</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         <v>43406</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>43410</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43413</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43416</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43423</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43427</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43427</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43427</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43431</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43467</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43467</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43483</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>43495</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43496</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43501</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>43545</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>43594</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43598</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43600</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43607</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43614</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>43655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>43672</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>43677</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>43677</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43690</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43691</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43705</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>43710</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>43712</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43713</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43713</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43713</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43718</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43718</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43721</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43739</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43742</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43752</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43770</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43773</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43780</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43789</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43803</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43809</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43818</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43818</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43818</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43832</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43839</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43839</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43908</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43922</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43930</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44012</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44041</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>44057</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44085</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44085</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44085</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44085</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44085</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>44085</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44085</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44090</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>44092</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44102</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>44103</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>44105</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>44125</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>44125</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>44131</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>44147</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44174</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44229</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44229</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>44246</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44271</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44280</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44300</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44308</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44308</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44341</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>44342</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>44342</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44378</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44385</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44431</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44446</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44448</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>44455</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44460</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44460</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44462</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44462</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44462</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44463</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>44463</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>44463</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44466</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>44473</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>44476</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>44484</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>44488</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44491</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>44491</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44494</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44494</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44497</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44517</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>44522</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>44522</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44531</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>44543</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44552</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>44599</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>44602</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44602</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>44616</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>44617</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44617</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>44617</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>44617</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>44617</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44627</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44645</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44677</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44685</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44690</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44701</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44705</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44711</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44721</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44721</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44727</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>44728</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>44732</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44732</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44739</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44739</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>44739</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>44739</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>44739</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>44748</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44749</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44781</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44788</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44790</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>44795</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>44795</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>44795</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12280,7 +12280,7 @@
         <v>44818</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>44820</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44825</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44834</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12570,7 +12570,7 @@
         <v>44847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>44847</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>44851</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>44851</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>44853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>44853</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>44855</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>44861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>44865</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44872</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>44873</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44875</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44876</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44896</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44897</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44910</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44916</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44918</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44918</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44942</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44943</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>44944</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>44949</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>44952</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>44952</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>44958</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44959</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44960</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44973</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>44973</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>44985</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>44988</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44992</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44994</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>45016</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>45016</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>45016</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>45028</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>45033</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>45035</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>45044</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>45071</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>45078</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>45078</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>45078</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>45079</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>45084</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>45086</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>45093</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>45098</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>45103</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>45103</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>45107</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15894,7 +15894,7 @@
         <v>45107</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>45107</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16018,7 +16018,7 @@
         <v>45159</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>45159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>45159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt ÄLVSBYN.xlsx
+++ b/Översikt ÄLVSBYN.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44949</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45099</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43875</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44813</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44874</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44487</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44671</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44749</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44791</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>44969</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>43348</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>43373</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>43394</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         <v>43397</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>43403</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         <v>43406</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>43410</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43413</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43416</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43423</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43427</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43427</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43427</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43431</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43467</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43467</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43483</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>43495</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43496</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43501</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>43545</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>43594</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43598</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43600</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43607</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43614</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>43655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>43672</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>43677</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>43677</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43690</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43691</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43705</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>43710</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>43712</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43713</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43713</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43713</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43718</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43718</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43721</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43739</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43742</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43752</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43770</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43773</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43780</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43789</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43803</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43809</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43818</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43818</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43818</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43832</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43839</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43839</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43908</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43922</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43930</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44012</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44041</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>44057</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44085</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44085</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44085</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44085</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44085</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>44085</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44085</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44090</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>44092</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44102</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>44103</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>44105</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>44125</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>44125</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>44131</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>44147</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44174</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44229</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44229</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>44246</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44271</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44280</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44300</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44308</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44308</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44341</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>44342</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>44342</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44378</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44385</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44431</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44446</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44448</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>44455</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44460</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44460</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44462</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44462</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44462</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44463</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>44463</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>44463</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44466</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>44473</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>44476</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>44484</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>44488</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44491</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>44491</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44494</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44494</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44497</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44517</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>44522</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>44522</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44531</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>44543</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44552</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>44599</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>44602</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44602</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>44616</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>44617</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44617</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>44617</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>44617</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>44617</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44627</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44645</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44677</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44685</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44690</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44701</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44705</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44711</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44721</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44721</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44727</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>44728</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>44732</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44732</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44739</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44739</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>44739</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>44739</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>44739</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>44748</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44749</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44781</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44788</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44790</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>44795</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>44795</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>44795</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12280,7 +12280,7 @@
         <v>44818</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>44820</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44825</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44834</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12570,7 +12570,7 @@
         <v>44847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>44847</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>44851</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>44851</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>44853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>44853</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>44855</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>44861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>44865</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44872</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>44873</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44875</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44876</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44896</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44897</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44910</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44916</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44918</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44918</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44942</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44943</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>44944</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>44949</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>44952</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>44952</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>44958</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44959</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44960</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44973</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>44973</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>44985</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>44988</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44992</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44994</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>45016</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>45016</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>45016</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>45028</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>45033</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>45035</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>45044</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>45071</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>45078</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>45078</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>45078</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>45079</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>45084</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>45086</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>45093</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>45098</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>45103</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>45103</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>45107</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15894,7 +15894,7 @@
         <v>45107</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>45107</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16018,7 +16018,7 @@
         <v>45159</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>45159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>45159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt ÄLVSBYN.xlsx
+++ b/Översikt ÄLVSBYN.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44949</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45099</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43875</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44813</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44874</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44487</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44671</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44749</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44791</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>44969</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>43348</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>43373</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>43394</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         <v>43397</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>43403</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         <v>43406</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>43410</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43413</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43416</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43423</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43427</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43427</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43427</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43431</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43467</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43467</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43483</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>43495</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43496</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43501</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>43545</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>43594</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43598</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43600</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43607</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43614</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>43655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>43672</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>43677</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>43677</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43690</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43691</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43705</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>43710</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>43712</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43713</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43713</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43713</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43718</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43718</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43721</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43739</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43742</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43752</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43770</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43773</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43780</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43789</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43803</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43809</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43818</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43818</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43818</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43832</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43839</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43839</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43908</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43922</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43930</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44012</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44041</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>44057</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44085</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44085</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44085</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44085</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44085</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>44085</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44085</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44090</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>44092</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44102</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>44103</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>44105</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>44125</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>44125</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>44131</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>44147</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44174</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44229</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44229</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>44246</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44271</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44280</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44300</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44308</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44308</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44341</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>44342</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>44342</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44378</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44385</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44431</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44446</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44448</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>44455</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44460</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44460</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44462</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44462</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44462</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44463</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>44463</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>44463</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44466</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>44473</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>44476</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>44484</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>44488</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44491</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>44491</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44494</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44494</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44497</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44517</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>44522</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>44522</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44531</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>44543</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44552</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>44599</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>44602</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44602</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>44616</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>44617</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44617</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>44617</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>44617</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>44617</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44627</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44645</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44677</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44685</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44690</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44701</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44705</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44711</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44721</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44721</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44727</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>44728</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>44732</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44732</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44739</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44739</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>44739</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>44739</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>44739</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>44748</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44749</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44781</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44788</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44790</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>44795</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>44795</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>44795</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12280,7 +12280,7 @@
         <v>44818</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>44820</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44825</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44834</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12570,7 +12570,7 @@
         <v>44847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>44847</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>44851</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>44851</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>44853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>44853</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>44855</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>44861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>44865</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44872</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>44873</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44875</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44876</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44896</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44897</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44910</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44916</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44918</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44918</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44942</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44943</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>44944</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>44949</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>44952</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>44952</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>44958</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44959</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44960</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44973</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>44973</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>44985</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>44988</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44992</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44994</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>45016</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>45016</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>45016</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>45028</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>45033</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>45035</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>45044</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>45071</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>45078</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>45078</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>45078</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>45079</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>45084</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>45086</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>45093</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>45098</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>45103</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>45103</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>45107</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15894,7 +15894,7 @@
         <v>45107</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>45107</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16018,7 +16018,7 @@
         <v>45159</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>45159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>45159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt ÄLVSBYN.xlsx
+++ b/Översikt ÄLVSBYN.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44949</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45099</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43875</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44813</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44874</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44487</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44671</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44749</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44791</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>44969</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>43348</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>43373</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>43394</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         <v>43397</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>43403</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         <v>43406</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>43410</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43413</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43416</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43423</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43427</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43427</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43427</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43431</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43467</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43467</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43483</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>43495</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43496</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43501</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>43545</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>43594</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43598</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43600</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43607</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43614</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>43655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>43672</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>43677</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>43677</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43690</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43691</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43705</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>43710</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>43712</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43713</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43713</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43713</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43718</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43718</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43721</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43739</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43742</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43752</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43770</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43773</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43780</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43789</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43803</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43809</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43818</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43818</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43818</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43832</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43839</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43839</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43908</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43922</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43930</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44012</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44041</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>44057</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44085</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44085</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44085</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44085</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44085</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>44085</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44085</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44090</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>44092</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44102</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>44103</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>44105</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>44125</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>44125</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>44131</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>44147</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44174</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44229</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44229</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>44246</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44271</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44280</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44300</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44308</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44308</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44341</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>44342</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>44342</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44378</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44385</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44431</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44446</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44448</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>44455</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44460</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44460</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44462</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44462</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44462</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44463</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>44463</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>44463</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44466</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>44473</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>44476</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>44484</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>44488</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44491</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>44491</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44494</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44494</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44497</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44517</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>44522</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>44522</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44531</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>44543</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44552</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>44599</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>44602</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44602</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>44616</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>44617</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44617</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>44617</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>44617</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>44617</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44627</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44645</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44677</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44685</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44690</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44701</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44705</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44711</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44721</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44721</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44727</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>44728</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>44732</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44732</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44739</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44739</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>44739</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>44739</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>44739</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>44748</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44749</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44781</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44788</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44790</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>44795</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>44795</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>44795</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12280,7 +12280,7 @@
         <v>44818</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>44820</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44825</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44834</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12570,7 +12570,7 @@
         <v>44847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>44847</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>44851</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>44851</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>44853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>44853</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>44855</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>44861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>44865</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44872</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>44873</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44875</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44876</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44896</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44897</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44910</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44916</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44918</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44918</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44942</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44943</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>44944</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>44949</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>44952</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>44952</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>44958</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44959</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44960</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44973</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>44973</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>44985</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>44988</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44992</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44994</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>45016</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>45016</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>45016</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>45028</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>45033</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>45035</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>45044</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>45071</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>45078</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>45078</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>45078</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>45079</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>45084</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>45086</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>45093</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>45098</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>45103</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>45103</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>45107</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15894,7 +15894,7 @@
         <v>45107</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>45107</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16018,7 +16018,7 @@
         <v>45159</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>45159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>45159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt ÄLVSBYN.xlsx
+++ b/Översikt ÄLVSBYN.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44949</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45099</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43875</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44813</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44874</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44487</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44671</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44749</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44791</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>44969</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>43348</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>43373</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>43394</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         <v>43397</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>43403</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         <v>43406</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>43410</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43413</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43416</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43423</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43427</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43427</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43427</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43431</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43467</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43467</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43483</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>43495</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43496</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43501</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>43545</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>43594</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43598</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43600</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43607</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43614</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>43655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>43672</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>43677</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>43677</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43690</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43691</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43705</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>43710</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>43712</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43713</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43713</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43713</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43718</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43718</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43721</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43739</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43742</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43752</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43770</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43773</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43780</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43789</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43803</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43809</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43818</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43818</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43818</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43832</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43839</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43839</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43908</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43922</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43930</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44012</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44041</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>44057</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44085</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44085</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44085</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44085</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44085</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>44085</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44085</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44090</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>44092</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44102</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>44103</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>44105</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>44125</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>44125</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>44131</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>44147</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44174</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44229</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44229</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>44246</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44271</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44280</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44300</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44308</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44308</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44341</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>44342</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>44342</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44378</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44385</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44431</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44446</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44448</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>44455</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44460</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44460</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44462</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44462</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44462</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44463</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>44463</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>44463</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44466</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>44473</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>44476</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>44484</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>44488</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44491</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>44491</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44494</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44494</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44497</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44517</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>44522</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>44522</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44531</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>44543</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44552</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>44599</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>44602</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44602</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>44616</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>44617</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44617</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>44617</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>44617</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>44617</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44627</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44645</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44677</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44685</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44690</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44701</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44705</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44711</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44721</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44721</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44727</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>44728</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>44732</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44732</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44739</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44739</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>44739</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>44739</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>44739</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>44748</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44749</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44781</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44788</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44790</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>44795</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>44795</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>44795</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12280,7 +12280,7 @@
         <v>44818</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>44820</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44825</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44834</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12570,7 +12570,7 @@
         <v>44847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>44847</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>44851</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>44851</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>44853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>44853</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>44855</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>44861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>44865</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44872</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>44873</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44875</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44876</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44896</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44897</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44910</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44916</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44918</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44918</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44942</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44943</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>44944</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>44949</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>44952</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>44952</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>44958</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44959</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44960</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44973</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>44973</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>44985</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>44988</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44992</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44994</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>45016</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>45016</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>45016</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>45028</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>45033</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>45035</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>45044</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>45071</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>45078</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>45078</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>45078</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>45079</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>45084</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>45086</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>45093</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>45098</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>45103</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>45103</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>45107</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15894,7 +15894,7 @@
         <v>45107</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>45107</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16018,7 +16018,7 @@
         <v>45159</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>45159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>45159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt ÄLVSBYN.xlsx
+++ b/Översikt ÄLVSBYN.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44949</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45099</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43875</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44813</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44874</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44487</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44671</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44749</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44791</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>44969</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>43348</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>43373</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>43394</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         <v>43397</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>43403</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         <v>43406</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>43410</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>43413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43413</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43416</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43416</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43423</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43427</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43427</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43427</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43431</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43467</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43467</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43483</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>43495</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43496</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43501</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>43545</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>43594</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43598</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43600</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43607</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43614</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>43655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>43672</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>43677</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>43677</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43690</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43691</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43705</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>43710</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>43712</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43713</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43713</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43713</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43718</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43718</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43721</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43739</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43742</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43752</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43770</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43773</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43780</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43789</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43803</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43809</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43818</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43818</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43818</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43832</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43839</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43839</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43908</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43922</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43930</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44012</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44041</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>44057</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44085</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44085</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44085</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44085</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44085</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>44085</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44085</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44090</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>44092</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44102</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>44103</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>44105</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>44125</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>44125</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>44131</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>44147</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44174</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44229</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44229</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>44246</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44271</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44280</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44300</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44308</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44308</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44341</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>44342</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>44342</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44378</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44385</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44431</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44446</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44448</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>44455</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44460</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44460</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44462</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44462</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44462</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44463</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>44463</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>44463</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44466</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>44473</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>44476</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>44484</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>44488</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44491</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>44491</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44494</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44494</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44497</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44517</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>44522</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>44522</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44531</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>44543</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44552</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>44599</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>44602</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44602</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>44616</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>44617</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44617</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>44617</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>44617</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>44617</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44627</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44645</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44677</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44685</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44690</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44701</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44705</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44711</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44721</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44721</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44727</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>44728</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>44732</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44732</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44739</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44739</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>44739</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>44739</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>44739</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>44748</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44749</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44781</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44788</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44790</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>44795</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>44795</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>44795</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12280,7 +12280,7 @@
         <v>44818</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>44820</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44825</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44834</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12570,7 +12570,7 @@
         <v>44847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>44847</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>44851</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>44851</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>44853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>44853</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>44855</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>44861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>44865</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44872</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>44873</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44875</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44876</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44896</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44897</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44910</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44916</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44918</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44918</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44942</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44943</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>44944</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>44949</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>44952</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>44952</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>44958</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44959</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44960</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44973</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>44973</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>44985</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>44988</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44992</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44994</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>45016</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>45016</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>45016</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>45028</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>45033</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>45035</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>45044</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>45071</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>45078</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>45078</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>45078</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>45079</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>45084</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>45086</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>45093</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>45098</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>45103</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>45103</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>45107</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15894,7 +15894,7 @@
         <v>45107</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>45107</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16018,7 +16018,7 @@
         <v>45159</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>45159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>45159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
